--- a/spliced/falling/2023-03-25_18-01-10/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-10/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>0.061391957104206</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1.128712320327757</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.191518974304199</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.193370014429091</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.008399397134780801</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.1032362282276153</v>
-      </c>
-      <c r="H22" t="n">
-        <v>-0.090866208076477</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-01-10/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-10/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.428671193122864</v>
+        <v>-2.236848592758179</v>
       </c>
       <c r="D2" t="n">
-        <v>3.703050696849823</v>
+        <v>3.817810773849488</v>
       </c>
       <c r="E2" t="n">
-        <v>1.323268264532089</v>
+        <v>1.356045484542847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0251981914043426</v>
+        <v>-0.0091629782691597</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0175623763352632</v>
+        <v>0.008399397134780801</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0310014113783836</v>
+        <v>-0.0251981914043426</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.461624765396118</v>
+        <v>-2.285426902770996</v>
       </c>
       <c r="D3" t="n">
-        <v>3.616514706611633</v>
+        <v>3.86536750793457</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9642781019210801</v>
+        <v>1.423394083976746</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0426078513264656</v>
+        <v>0.040775254368782</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.042302418500185</v>
+        <v>0.0474947728216648</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06704246252775189</v>
+        <v>-0.0180205255746841</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.319928169250488</v>
+        <v>-2.325414371490478</v>
       </c>
       <c r="D4" t="n">
-        <v>3.585709452629088</v>
+        <v>3.847443521022797</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5316097438335416</v>
+        <v>1.428170895576477</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0807869285345077</v>
+        <v>0.008399397134780801</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06704246252775189</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0733038261532783</v>
+        <v>-0.0125227374956011</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.305660724639893</v>
+        <v>-2.198427677154541</v>
       </c>
       <c r="D5" t="n">
-        <v>3.332286834716796</v>
+        <v>3.85212025642395</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07676682472228982</v>
+        <v>1.377349805831909</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0183259565383195</v>
+        <v>0.0181732401251792</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1901318132877349</v>
+        <v>0.011148290708661</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0618501044809818</v>
+        <v>0.0201585534960031</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.763672423362733</v>
+        <v>-2.239168739318848</v>
       </c>
       <c r="D6" t="n">
-        <v>2.987097477912901</v>
+        <v>3.77459921836853</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2520411491394069</v>
+        <v>1.236697590351105</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0526871271431446</v>
+        <v>-0.0290160998702049</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3115412890911102</v>
+        <v>-0.0050396383740007</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0861319974064827</v>
+        <v>0.0441350154578685</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.228790092468267</v>
+        <v>-2.284214735031127</v>
       </c>
       <c r="D7" t="n">
-        <v>2.132350564002988</v>
+        <v>3.738507509231567</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.067725944519043</v>
+        <v>1.190666794776917</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.057115901261568</v>
+        <v>0.0397062413394451</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2079996168613433</v>
+        <v>-0.0019853119738399</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1476766765117645</v>
+        <v>0.0597120784223079</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.195065975189209</v>
+        <v>-2.274757814407349</v>
       </c>
       <c r="D8" t="n">
-        <v>1.12532408237457</v>
+        <v>3.780967509746552</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.079952371120452</v>
+        <v>1.303351855278015</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0540615729987621</v>
+        <v>0.0830776765942573</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0456621758639812</v>
+        <v>-0.0916297882795333</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.3489567637443542</v>
+        <v>0.06856962293386459</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-5.408200263977051</v>
+        <v>-2.355447578430176</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3617565631866455</v>
+        <v>3.771934032440186</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.6209573745727539</v>
+        <v>1.401894807815552</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0517708286643028</v>
+        <v>0.0453567430377006</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1207986027002334</v>
+        <v>-0.0123700210824608</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.4889976382255554</v>
+        <v>0.0334448739886283</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-5.044864058494567</v>
+        <v>-2.428671193122864</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9128529787063611</v>
+        <v>3.703050696849823</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.318287602066993</v>
+        <v>1.323268264532089</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9677632451057434</v>
+        <v>0.0251981914043426</v>
       </c>
       <c r="G10" t="n">
-        <v>1.55587375164032</v>
+        <v>0.0175623763352632</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.213317394256592</v>
+        <v>0.0310014113783836</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2.147526121139514</v>
+        <v>-2.461624765396118</v>
       </c>
       <c r="D11" t="n">
-        <v>2.947685408592233</v>
+        <v>3.616514706611633</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.418278175592428</v>
+        <v>0.9642781019210801</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.3923282027244568</v>
+        <v>0.0426078513264656</v>
       </c>
       <c r="G11" t="n">
-        <v>1.798387289047241</v>
+        <v>-0.042302418500185</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.971720337867737</v>
+        <v>0.06704246252775189</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.457507729530336</v>
+        <v>-2.319928169250488</v>
       </c>
       <c r="D12" t="n">
-        <v>2.719761490821837</v>
+        <v>3.585709452629088</v>
       </c>
       <c r="E12" t="n">
-        <v>-2.574102157354357</v>
+        <v>0.5316097438335416</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.612850546836853</v>
+        <v>-0.0807869285345077</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.971374034881592</v>
+        <v>-0.06704246252775189</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.526399493217468</v>
+        <v>-0.0733038261532783</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-8.347633457183861</v>
+        <v>-2.305660724639893</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3747469902038705</v>
+        <v>3.332286834716796</v>
       </c>
       <c r="E13" t="n">
-        <v>2.810587501525903</v>
+        <v>0.07676682472228982</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1269072592258453</v>
+        <v>-0.0183259565383195</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4891503453254699</v>
+        <v>-0.1901318132877349</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1519527286291122</v>
+        <v>0.0618501044809818</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-9.06434655189514</v>
+        <v>-2.763672423362733</v>
       </c>
       <c r="D14" t="n">
-        <v>2.370895385742192</v>
+        <v>2.987097477912901</v>
       </c>
       <c r="E14" t="n">
-        <v>2.526045709848401</v>
+        <v>-0.2520411491394069</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0516181141138076</v>
+        <v>-0.0526871271431446</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4092797040939331</v>
+        <v>-0.3115412890911102</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1918116807937622</v>
+        <v>0.0861319974064827</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.765351390838669</v>
+        <v>-3.228790092468267</v>
       </c>
       <c r="D15" t="n">
-        <v>3.193235373497008</v>
+        <v>2.132350564002988</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3422038555145195</v>
+        <v>-1.067725944519043</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0490219369530677</v>
+        <v>-0.057115901261568</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1739438772201538</v>
+        <v>-0.2079996168613433</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2171625941991806</v>
+        <v>-0.1476766765117645</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.5670121669769</v>
+        <v>-5.195065975189209</v>
       </c>
       <c r="D16" t="n">
-        <v>4.178837358951577</v>
+        <v>1.12532408237457</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5715423285961221</v>
+        <v>-1.079952371120452</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0340557359158992</v>
+        <v>-0.0540615729987621</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.152105450630188</v>
+        <v>0.0456621758639812</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.2504547536373138</v>
+        <v>-0.3489567637443542</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.4724056243896478</v>
+        <v>-5.408200263977051</v>
       </c>
       <c r="D17" t="n">
-        <v>4.734174823760986</v>
+        <v>0.3617565631866455</v>
       </c>
       <c r="E17" t="n">
-        <v>2.432305717468271</v>
+        <v>-0.6209573745727539</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.016951510682702</v>
+        <v>0.0517708286643028</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2273945808410644</v>
+        <v>0.1207986027002334</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3982841372489929</v>
+        <v>-0.4889976382255554</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.06286396980285353</v>
+        <v>-5.044864058494567</v>
       </c>
       <c r="D18" t="n">
-        <v>4.10421558618545</v>
+        <v>0.9128529787063611</v>
       </c>
       <c r="E18" t="n">
-        <v>2.57377957105636</v>
+        <v>-0.318287602066993</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0387899428606033</v>
+        <v>0.9677632451057434</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.08124507963657369</v>
+        <v>1.55587375164032</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1327104717493057</v>
+        <v>-2.213317394256592</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.2147421836853027</v>
+        <v>-2.147526121139514</v>
       </c>
       <c r="D19" t="n">
-        <v>3.490234732627868</v>
+        <v>2.947685408592233</v>
       </c>
       <c r="E19" t="n">
-        <v>1.606800019741057</v>
+        <v>-1.418278175592428</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0487165041267871</v>
+        <v>-0.3923282027244568</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0951422601938247</v>
+        <v>1.798387289047241</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.1156062483787536</v>
+        <v>-1.971720337867737</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4.000663757422473e-05</v>
+        <v>-2.457507729530336</v>
       </c>
       <c r="D20" t="n">
-        <v>4.117116189002994</v>
+        <v>2.719761490821837</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8414077341556527</v>
+        <v>-2.574102157354357</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0276416521519422</v>
+        <v>-0.612850546836853</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0578794814646244</v>
+        <v>-4.971374034881592</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0484110713005065</v>
+        <v>-1.526399493217468</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-8.347633457183861</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.3747469902038705</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2.810587501525903</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1269072592258453</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.4891503453254699</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.1519527286291122</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-9.06434655189514</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.370895385742192</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2.526045709848401</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0516181141138076</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.4092797040939331</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1918116807937622</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.765351390838669</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.193235373497008</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.3422038555145195</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.0490219369530677</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.1739438772201538</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2171625941991806</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2.5670121669769</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.178837358951577</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5715423285961221</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.0340557359158992</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.152105450630188</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.2504547536373138</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.4724056243896478</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.734174823760986</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2.432305717468271</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.016951510682702</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.2273945808410644</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3982841372489929</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.06286396980285353</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.10421558618545</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2.57377957105636</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0387899428606033</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.08124507963657369</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.1327104717493057</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2147421836853027</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.490234732627868</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.606800019741057</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.0487165041267871</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.0951422601938247</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.1156062483787536</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4.000663757422473e-05</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.117116189002994</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.8414077341556527</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.0276416521519422</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0578794814646244</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0484110713005065</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>0.6697305679321306</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D29" t="n">
         <v>4.689649581909178</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E29" t="n">
         <v>0.7220227718353288</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F29" t="n">
         <v>0.001527163083665</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G29" t="n">
         <v>0.0532979927957057</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H29" t="n">
         <v>0.061391957104206</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.128712320327757</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.191518974304199</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.193370014429091</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.008399397134780801</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.1032362282276153</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.090866208076477</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9585402488708525</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.21038007736206</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.021172881126405</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0235183127224445</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0720821022987365</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.0161879286170005</v>
       </c>
     </row>
   </sheetData>
